--- a/datafiles/sysMgtData.xlsx
+++ b/datafiles/sysMgtData.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="getDC" sheetId="31" r:id="rId1"/>
-    <sheet name="editDC" sheetId="32" r:id="rId2"/>
-    <sheet name="getNode" sheetId="33" r:id="rId3"/>
-    <sheet name="getExnet" sheetId="34" r:id="rId4"/>
-    <sheet name="getSysnet" sheetId="35" r:id="rId5"/>
+    <sheet name="getLicense" sheetId="31" r:id="rId1"/>
+    <sheet name="getLicenseCode" sheetId="33" r:id="rId2"/>
+    <sheet name="getUkey" sheetId="32" r:id="rId3"/>
+    <sheet name="editUKey" sheetId="34" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
   <si>
     <t>test_num</t>
   </si>
@@ -60,7 +59,7 @@
     </r>
   </si>
   <si>
-    <t>运维管理-区域-获取区域列表-缺少token</t>
+    <t>系统设置-授权管理-获取license-缺少token</t>
   </si>
   <si>
     <t>{
@@ -73,82 +72,104 @@
     <t>002</t>
   </si>
   <si>
-    <t>运维管理-区域-获取区域列表-成功</t>
-  </si>
-  <si>
-    <t>运维管理-区域-编辑区域-缺少token</t>
+    <t>系统设置-授权管理-获取license-成功</t>
+  </si>
+  <si>
+    <t>系统设置-授权管理-获取机器码-缺少token</t>
+  </si>
+  <si>
+    <t>系统设置-授权管理-获取机器码-成功</t>
+  </si>
+  <si>
+    <t>系统设置-安全设置-获取ukey-缺少token</t>
+  </si>
+  <si>
+    <t>系统设置-安全设置-获取ukey-成功</t>
+  </si>
+  <si>
+    <t>系统设置-安全设置-编辑ukey-缺少token</t>
   </si>
   <si>
     <t>{
-    "name":"dc-16-1",
-    "description":"中国区域-北京"
+    "state":0
 }</t>
   </si>
   <si>
-    <t>运维管理-区域-编辑区域-成功</t>
+    <t>系统设置-安全设置-编辑ukey-开启UKey不输入密码</t>
   </si>
   <si>
     <t>{
-    "name":"dc-16-1",
-    "description":"中国区域-北京-update"
+    "state":1
 }</t>
   </si>
   <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>运维管理-区域-编辑区域-描述为空</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>系统设置-安全设置-编辑ukey-开启UKey输入密码</t>
   </si>
   <si>
     <t>{
-    "name":"dc-16-1",
-    "description":""
+    "state":2
 }</t>
   </si>
   <si>
     <t>004</t>
   </si>
   <si>
-    <t>运维管理-区域-编辑区域-描述为200个字符</t>
+    <t>系统设置-安全设置-编辑ukey-关闭UKey</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>系统设置-安全设置-编辑ukey-state传参错误</t>
   </si>
   <si>
     <t>{
-    "name":"dc-16-1",
-    "description":"区域描述200个字符！@#￥OK区域描述200个字符！@#￥OK区域描述200个字符！@#￥OK区域描述200个字符！@#￥OK区域描述200个字符！@#￥OK区域描述200个字符！@#￥OK区域描述200个字符！@#￥OK区域描述200个字符！@#￥OK区域描述200个字符！@#￥OK区域描述200个字符！@#￥OK区域描述200个字符！@#￥OK区域描述200个字符！@#￥OK区域描述Over"
+    "state":9999
 }</t>
   </si>
   <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>运维管理-区域-编辑区域-描述大于200个字符</t>
-  </si>
-  <si>
-    <t>{
-    "name":"dc-16-1",
-    "description":"区域描述超过200个字符！@#￥OK区域描述超过200个字符！@#￥OK区域描述超过200个字符！@#￥OK区域描述超过200个字符！@#￥OK区域描述超过200个字符！@#￥OK区域描述超过200个字符！@#￥OK区域描述超过200个字符！@#￥OK区域描述超过200个字符！@#￥OK区域描述超过200个字符！@#￥OK区域描述超过200个字符！@#￥OK区域描述超过200个字符！@#￥OKOverr"
-}</t>
-  </si>
-  <si>
-    <t>参数错误</t>
-  </si>
-  <si>
-    <t>运维管理-节点管理-获取节点列表-缺少token</t>
-  </si>
-  <si>
-    <t>运维管理-节点管理-获取节点列表-成功</t>
-  </si>
-  <si>
-    <t>运维管理-基础网络-获取外部网络列表-缺少token</t>
-  </si>
-  <si>
-    <t>运维管理-基础网络-获取外部网络列表-成功</t>
-  </si>
-  <si>
-    <t>运维管理-基础网络-获取系统网络列表-缺少token</t>
-  </si>
-  <si>
-    <t>运维管理-基础网络-获取系统网络列表-成功</t>
+    <t>双因子状态错误</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1208,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="42.125" customWidth="1"/>
     <col min="3" max="3" width="47.875" customWidth="1"/>
     <col min="5" max="5" width="29.625" customWidth="1"/>
   </cols>
@@ -1256,15 +1277,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="42.5" customWidth="1"/>
+    <col min="2" max="2" width="42.125" customWidth="1"/>
     <col min="3" max="3" width="47.875" customWidth="1"/>
     <col min="5" max="5" width="29.625" customWidth="1"/>
   </cols>
@@ -1289,7 +1310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="54" spans="1:6">
+    <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1297,7 +1318,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -1309,67 +1330,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="54" spans="1:5">
+    <row r="3" s="2" customFormat="1" ht="27" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="7"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="54" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="135" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="148.5" spans="1:5">
-      <c r="A6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1383,12 +1357,12 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="42.125" customWidth="1"/>
     <col min="3" max="3" width="47.875" customWidth="1"/>
     <col min="5" max="5" width="29.625" customWidth="1"/>
   </cols>
@@ -1418,7 +1392,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -1438,7 +1412,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -1457,13 +1431,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="56.125" customWidth="1"/>
     <col min="3" max="3" width="47.875" customWidth="1"/>
@@ -1490,15 +1464,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
+    <row r="2" s="2" customFormat="1" ht="40.5" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -1510,97 +1484,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="27" spans="1:5">
+    <row r="3" s="2" customFormat="1" ht="40.5" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="7"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
-  <cols>
-    <col min="2" max="2" width="56.125" customWidth="1"/>
-    <col min="3" max="3" width="47.875" customWidth="1"/>
-    <col min="5" max="5" width="29.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="4" s="2" customFormat="1" ht="40.5" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="E4" s="7"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1005</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2">
+    <row r="5" s="2" customFormat="1" ht="40.5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
+      <c r="E5" s="7"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="27" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7"/>
+    <row r="6" s="2" customFormat="1" ht="40.5" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2">
+        <v>220016</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
